--- a/skoring/utils/datasets/Training Catalog.xlsx
+++ b/skoring/utils/datasets/Training Catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\sistem-skoring-pelatihan-microsoft\skoring\utils\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968DDD0F-1CDE-48B5-878D-9984DE14B389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E73C7B-560F-4496-93A1-AF7AE5594E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1625,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B355"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B345" sqref="B345"/>
+    <sheetView tabSelected="1" topLeftCell="A336" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A349" sqref="A349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4403,32 +4403,43 @@
         <v>392</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B347"/>
-    </row>
-    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B348"/>
-    </row>
-    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B349"/>
-    </row>
-    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B350"/>
-    </row>
-    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B351"/>
-    </row>
-    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B352"/>
-    </row>
-    <row r="353" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B353"/>
-    </row>
-    <row r="354" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B354"/>
-    </row>
-    <row r="355" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B355"/>
+    <row r="347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B361"/>
+    </row>
+    <row r="362" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B362"/>
+    </row>
+    <row r="363" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B363"/>
+    </row>
+    <row r="364" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B364"/>
+    </row>
+    <row r="365" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B365"/>
+    </row>
+    <row r="366" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B366"/>
+    </row>
+    <row r="367" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B367"/>
+    </row>
+    <row r="368" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B368"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
